--- a/exp_data.xlsx
+++ b/exp_data.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20760" windowHeight="11790" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="India_pines" sheetId="3" r:id="rId1"/>
-    <sheet name="PaviaU" sheetId="5" r:id="rId2"/>
-    <sheet name="knn" sheetId="6" r:id="rId3"/>
-    <sheet name="layer_pavia" sheetId="7" r:id="rId4"/>
-    <sheet name="layer_indian" sheetId="10" r:id="rId5"/>
-    <sheet name="pcnum_pavia" sheetId="8" r:id="rId6"/>
-    <sheet name="pcnum_indian" sheetId="9" r:id="rId7"/>
+    <sheet name="KSC" sheetId="11" r:id="rId2"/>
+    <sheet name="Salinas" sheetId="12" r:id="rId3"/>
+    <sheet name="PaviaU" sheetId="5" r:id="rId4"/>
+    <sheet name="knn" sheetId="6" r:id="rId5"/>
+    <sheet name="layer_pavia" sheetId="7" r:id="rId6"/>
+    <sheet name="layer_indian" sheetId="10" r:id="rId7"/>
+    <sheet name="pcnum_pavia" sheetId="8" r:id="rId8"/>
+    <sheet name="pcnum_indian" sheetId="9" r:id="rId9"/>
+    <sheet name="datanum_accuracy" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="111">
   <si>
     <t>OA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +298,160 @@
   </si>
   <si>
     <t xml:space="preserve">MDS+LeakyRelu+SVM </t>
+  </si>
+  <si>
+    <t>分类器:SVM</t>
+  </si>
+  <si>
+    <t>降维方法:MDS</t>
+  </si>
+  <si>
+    <t>降维参数:3</t>
+  </si>
+  <si>
+    <t>网络层数:5</t>
+  </si>
+  <si>
+    <t>激活函数:LeakyRelu</t>
+  </si>
+  <si>
+    <t>OA= 0.9452</t>
+  </si>
+  <si>
+    <t>Kappa=0.93897</t>
+  </si>
+  <si>
+    <t>time=54.7944</t>
+  </si>
+  <si>
+    <t>降维方法:PCA</t>
+  </si>
+  <si>
+    <t>OA= 0.93792</t>
+  </si>
+  <si>
+    <t>Kappa=0.93085</t>
+  </si>
+  <si>
+    <t>time=55.8681</t>
+  </si>
+  <si>
+    <t>降维参数:10</t>
+  </si>
+  <si>
+    <t>OA= 0.96881</t>
+  </si>
+  <si>
+    <t>Kappa=0.96527</t>
+  </si>
+  <si>
+    <t>time=75.6391</t>
+  </si>
+  <si>
+    <t>网络层数:10</t>
+  </si>
+  <si>
+    <t>OA= 0.9737</t>
+  </si>
+  <si>
+    <t>Kappa=0.97072</t>
+  </si>
+  <si>
+    <t>time=139.4664</t>
+  </si>
+  <si>
+    <t>Brocoli_green_weeds_2</t>
+  </si>
+  <si>
+    <t>Fallow</t>
+  </si>
+  <si>
+    <t>Fallow_rough_plow</t>
+  </si>
+  <si>
+    <t>Fallow_smooth</t>
+  </si>
+  <si>
+    <t>Stubble</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
+    <t>Grapes_untrained</t>
+  </si>
+  <si>
+    <t>Soil_vinyard_develop</t>
+  </si>
+  <si>
+    <t>Corn_senesced_green_weeds</t>
+  </si>
+  <si>
+    <t>Lettuce_romaine_4wk</t>
+  </si>
+  <si>
+    <t>Lettuce_romaine_5wk</t>
+  </si>
+  <si>
+    <t>Lettuce_romaine_6wk</t>
+  </si>
+  <si>
+    <t>Lettuce_romaine_7wk</t>
+  </si>
+  <si>
+    <t>Vinyard_untrained</t>
+  </si>
+  <si>
+    <t>Vinyard_vertical_trellis</t>
+  </si>
+  <si>
+    <t>Brocoli_green_weeds_1</t>
+  </si>
+  <si>
+    <t>样本数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaviaU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indian Pines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KSC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Salinas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：MDS+SVM+LeakyRelu+降维参数10+网络层数10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OA= 0.97902</t>
+  </si>
+  <si>
+    <t>Kappa=0.97557</t>
+  </si>
+  <si>
+    <t>time=38.2029</t>
+  </si>
+  <si>
+    <t>OA= 0.99835</t>
+  </si>
+  <si>
+    <t>Kappa=0.99816</t>
+  </si>
+  <si>
+    <t>time=147.2376</t>
   </si>
 </sst>
 </file>
@@ -2915,7 +3072,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3023,7 +3179,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3098,7 +3253,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3514,7 +3668,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3603,7 +3756,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3702,7 +3854,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4403,6 +4554,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="316685727"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4418,7 +4570,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6015,6 +6166,712 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>datanum_accuracy!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>样本数量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>datanum_accuracy!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>KSC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indian Pines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PaviaU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Salinas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>datanum_accuracy!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5211</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42776</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CEE9-42CD-BAC2-7B657290F043}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="260096080"/>
+        <c:axId val="271712960"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>datanum_accuracy!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>datanum_accuracy!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>KSC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indian Pines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PaviaU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Salinas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>datanum_accuracy!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.97370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99866999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99834999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CEE9-42CD-BAC2-7B657290F043}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>datanum_accuracy!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>datanum_accuracy!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>KSC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Indian Pines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>PaviaU</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Salinas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>datanum_accuracy!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.97072000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97557000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99817999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99816000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CEE9-42CD-BAC2-7B657290F043}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="108168432"/>
+        <c:axId val="108169264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="108168432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>数据集</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108169264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="108169264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>OA\Kappa</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="108168432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="271712960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>样本数量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="260096080"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="260096080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="271712960"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6295,6 +7152,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="225">
   <cs:axisTitle>
@@ -9363,6 +10260,509 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10095,6 +11495,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -10375,10 +11810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" activeCellId="1" sqref="A31 A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10790,6 +12225,46 @@
         <v>51</v>
       </c>
     </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:I17">
     <sortCondition descending="1" ref="F2:F17"/>
@@ -10801,12 +12276,586 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2">
+        <v>5211</v>
+      </c>
+      <c r="C2">
+        <v>0.97370000000000001</v>
+      </c>
+      <c r="D2">
+        <v>0.97072000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
+        <v>10249</v>
+      </c>
+      <c r="C3">
+        <v>0.97902</v>
+      </c>
+      <c r="D3">
+        <v>0.97557000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4">
+        <v>42776</v>
+      </c>
+      <c r="C4">
+        <v>0.99866999999999995</v>
+      </c>
+      <c r="D4">
+        <v>0.99817999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
+        <v>54129</v>
+      </c>
+      <c r="C5">
+        <v>0.99834999999999996</v>
+      </c>
+      <c r="D5">
+        <v>0.99816000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D5">
+    <sortCondition ref="B2:B5"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1">
+        <v>2009</v>
+      </c>
+      <c r="I1">
+        <v>200</v>
+      </c>
+      <c r="J1">
+        <f>H1-I1</f>
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2">
+        <v>3726</v>
+      </c>
+      <c r="I2">
+        <v>300</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J16" si="0">H2-I2</f>
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>1976</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4">
+        <v>1394</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5">
+        <v>2678</v>
+      </c>
+      <c r="I5">
+        <v>200</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>2478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6">
+        <v>3959</v>
+      </c>
+      <c r="I6">
+        <v>400</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7">
+        <v>3579</v>
+      </c>
+      <c r="I7">
+        <v>300</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>3279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8">
+        <v>11271</v>
+      </c>
+      <c r="I8">
+        <v>1000</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>10271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="F9">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9">
+        <v>6203</v>
+      </c>
+      <c r="I9">
+        <v>600</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>5603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10">
+        <v>3278</v>
+      </c>
+      <c r="I10">
+        <v>300</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="F11">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11">
+        <v>1068</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="F12">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12">
+        <v>1927</v>
+      </c>
+      <c r="I12">
+        <v>200</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="F13">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13">
+        <v>916</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="F14">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14">
+        <v>1070</v>
+      </c>
+      <c r="I14">
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>970</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15">
+        <v>7268</v>
+      </c>
+      <c r="I15">
+        <v>700</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="F16">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16">
+        <v>1807</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10">
+      <c r="H17">
+        <f>SUM(H1:H16)</f>
+        <v>54129</v>
+      </c>
+      <c r="I17">
+        <f>SUM(I1:I16)</f>
+        <v>5000</v>
+      </c>
+      <c r="J17">
+        <f>SUM(J1:J16)</f>
+        <v>49129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11083,7 +13132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -11197,7 +13246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -11407,7 +13456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -11619,12 +13668,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11800,7 +13849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
